--- a/dataset/EHR_List.xlsx
+++ b/dataset/EHR_List.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koissi/Desktop/HealtDataInsights/Diagnostic_Support_System/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAB83D03-D8FF-D048-B556-90E2903C9776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7CFC30-CFB5-8449-9927-6E790637515C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{8839CFCE-F2F7-6E4B-A094-C5955EBD5510}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="list" sheetId="1" r:id="rId1"/>
+    <sheet name="publications" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">id </t>
   </si>
@@ -48,6 +49,21 @@
   </si>
   <si>
     <t>Avalaibility</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4167769/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link </t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment </t>
+  </si>
+  <si>
+    <t>Provides a comprehensive list of the avalaible EHR in Africa</t>
   </si>
 </sst>
 </file>
@@ -422,7 +438,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -444,4 +460,41 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC9CE48-EC80-7B4A-B389-DD3974D52F77}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>